--- a/Mars Competition.xlsx
+++ b/Mars Competition.xlsx
@@ -7,19 +7,20 @@
     <sheet state="visible" name="Mars Test Case" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ShareNewSkill" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="EditSkill" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="DeleteSkill" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhVKgTUiaiEiO/gQSjXd0730viOig=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6rwJHbn+SHSISLBHCwoqD27toSaJfUvHeIIqGSSzLA4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -1145,6 +1146,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10216,4 +10221,50 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>